--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H2">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>221.8308122860584</v>
+        <v>174.5186096564587</v>
       </c>
       <c r="R2">
-        <v>1996.477310574526</v>
+        <v>1570.667486908128</v>
       </c>
       <c r="S2">
-        <v>0.001408698538141018</v>
+        <v>0.002055653839579177</v>
       </c>
       <c r="T2">
-        <v>0.001408698538141019</v>
+        <v>0.002055653839579178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H3">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>6003.370533527273</v>
+        <v>5051.689403621293</v>
       </c>
       <c r="R3">
-        <v>54030.33480174546</v>
+        <v>45465.20463259164</v>
       </c>
       <c r="S3">
-        <v>0.03812337523063849</v>
+        <v>0.05950382448815962</v>
       </c>
       <c r="T3">
-        <v>0.0381233752306385</v>
+        <v>0.05950382448815962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H4">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>8193.849844155955</v>
+        <v>3525.782485269669</v>
       </c>
       <c r="R4">
-        <v>73744.6485974036</v>
+        <v>31732.04236742703</v>
       </c>
       <c r="S4">
-        <v>0.05203363851151951</v>
+        <v>0.04153017444748695</v>
       </c>
       <c r="T4">
-        <v>0.05203363851151952</v>
+        <v>0.04153017444748697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H5">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>574.2646847000152</v>
+        <v>537.5725488155805</v>
       </c>
       <c r="R5">
-        <v>5168.382162300137</v>
+        <v>4838.152939340224</v>
       </c>
       <c r="S5">
-        <v>0.003646769416323171</v>
+        <v>0.006332064392447536</v>
       </c>
       <c r="T5">
-        <v>0.003646769416323171</v>
+        <v>0.006332064392447536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H6">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>6148.064605269025</v>
+        <v>3579.112525357103</v>
       </c>
       <c r="R6">
-        <v>55332.58144742123</v>
+        <v>32212.01272821392</v>
       </c>
       <c r="S6">
-        <v>0.03904223012387772</v>
+        <v>0.04215834872578569</v>
       </c>
       <c r="T6">
-        <v>0.03904223012387772</v>
+        <v>0.04215834872578569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J7">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>300.4586507532142</v>
+        <v>280.9073457258773</v>
       </c>
       <c r="R7">
-        <v>2704.127856778928</v>
+        <v>2528.166111532896</v>
       </c>
       <c r="S7">
-        <v>0.001908011144737066</v>
+        <v>0.003308806235301249</v>
       </c>
       <c r="T7">
-        <v>0.001908011144737067</v>
+        <v>0.003308806235301249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J8">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>8131.262703709493</v>
@@ -948,10 +948,10 @@
         <v>73181.36433338543</v>
       </c>
       <c r="S8">
-        <v>0.05163618960735345</v>
+        <v>0.09577810315135514</v>
       </c>
       <c r="T8">
-        <v>0.05163618960735347</v>
+        <v>0.09577810315135514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J9">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>11098.15648817447</v>
+        <v>5675.143765433019</v>
       </c>
       <c r="R9">
-        <v>99883.40839357025</v>
+        <v>51076.29388889717</v>
       </c>
       <c r="S9">
-        <v>0.07047693987970938</v>
+        <v>0.06684749033092283</v>
       </c>
       <c r="T9">
-        <v>0.07047693987970939</v>
+        <v>0.06684749033092283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J10">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>777.8125615736677</v>
+        <v>865.2835254655075</v>
       </c>
       <c r="R10">
-        <v>7000.313054163009</v>
+        <v>7787.551729189569</v>
       </c>
       <c r="S10">
-        <v>0.004939365307933864</v>
+        <v>0.01019217036480642</v>
       </c>
       <c r="T10">
-        <v>0.004939365307933865</v>
+        <v>0.01019217036480642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J11">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>8327.243528552948</v>
+        <v>5760.984467681938</v>
       </c>
       <c r="R11">
-        <v>74945.19175697654</v>
+        <v>51848.86020913744</v>
       </c>
       <c r="S11">
-        <v>0.05288073223249894</v>
+        <v>0.06785860753795035</v>
       </c>
       <c r="T11">
-        <v>0.05288073223249894</v>
+        <v>0.06785860753795034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H12">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>624.7038956858316</v>
+        <v>340.893385257862</v>
       </c>
       <c r="R12">
-        <v>5622.335061172485</v>
+        <v>3068.040467320758</v>
       </c>
       <c r="S12">
-        <v>0.00396707497734271</v>
+        <v>0.004015381498121704</v>
       </c>
       <c r="T12">
-        <v>0.003967074977342711</v>
+        <v>0.004015381498121703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H13">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>16906.25806618713</v>
+        <v>9867.64394617672</v>
       </c>
       <c r="R13">
-        <v>152156.3225956841</v>
+        <v>88808.79551559048</v>
       </c>
       <c r="S13">
-        <v>0.1073602930893175</v>
+        <v>0.1162309292143029</v>
       </c>
       <c r="T13">
-        <v>0.1073602930893175</v>
+        <v>0.1162309292143029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H14">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>23074.92753399917</v>
+        <v>6887.035883751521</v>
       </c>
       <c r="R14">
-        <v>207674.3478059925</v>
+        <v>61983.32295376369</v>
       </c>
       <c r="S14">
-        <v>0.146533370859849</v>
+        <v>0.08112236159583366</v>
       </c>
       <c r="T14">
-        <v>0.1465333708598491</v>
+        <v>0.08112236159583366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H15">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>1617.202686993189</v>
+        <v>1050.059511407863</v>
       </c>
       <c r="R15">
-        <v>14554.8241829387</v>
+        <v>9450.535602670763</v>
       </c>
       <c r="S15">
-        <v>0.01026976837693439</v>
+        <v>0.01236864578890096</v>
       </c>
       <c r="T15">
-        <v>0.01026976837693439</v>
+        <v>0.01236864578890096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H16">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>17313.7350499668</v>
+        <v>6991.207341094264</v>
       </c>
       <c r="R16">
-        <v>155823.6154497012</v>
+        <v>62920.86606984837</v>
       </c>
       <c r="S16">
-        <v>0.1099479058084934</v>
+        <v>0.08234939667640591</v>
       </c>
       <c r="T16">
-        <v>0.1099479058084934</v>
+        <v>0.08234939667640589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H17">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>84.42399957905999</v>
+        <v>71.97306391748134</v>
       </c>
       <c r="R17">
-        <v>759.81599621154</v>
+        <v>647.7575752573321</v>
       </c>
       <c r="S17">
-        <v>0.000536120133922956</v>
+        <v>0.0008477703637422521</v>
       </c>
       <c r="T17">
-        <v>0.0005361201339229561</v>
+        <v>0.000847770363742252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H18">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>2284.75271839998</v>
+        <v>2083.362714462485</v>
       </c>
       <c r="R18">
-        <v>20562.77446559982</v>
+        <v>18750.26443016236</v>
       </c>
       <c r="S18">
-        <v>0.01450893039274169</v>
+        <v>0.02453991910462374</v>
       </c>
       <c r="T18">
-        <v>0.01450893039274169</v>
+        <v>0.02453991910462374</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H19">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>3118.40167136862</v>
+        <v>1454.064805300601</v>
       </c>
       <c r="R19">
-        <v>28065.61504231758</v>
+        <v>13086.58324770541</v>
       </c>
       <c r="S19">
-        <v>0.01980287513047874</v>
+        <v>0.01712742214653845</v>
       </c>
       <c r="T19">
-        <v>0.01980287513047874</v>
+        <v>0.01712742214653845</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H20">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>218.55269337816</v>
+        <v>221.6998146636062</v>
       </c>
       <c r="R20">
-        <v>1966.97424040344</v>
+        <v>1995.298331972456</v>
       </c>
       <c r="S20">
-        <v>0.001387881406085197</v>
+        <v>0.002611401019893285</v>
       </c>
       <c r="T20">
-        <v>0.001387881406085198</v>
+        <v>0.002611401019893284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H21">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>2339.820146256061</v>
+        <v>1476.058599495331</v>
       </c>
       <c r="R21">
-        <v>21058.38131630454</v>
+        <v>13284.52739545798</v>
       </c>
       <c r="S21">
-        <v>0.01485862665143822</v>
+        <v>0.01738648693952707</v>
       </c>
       <c r="T21">
-        <v>0.01485862665143822</v>
+        <v>0.01738648693952707</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H22">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>420.8956911078279</v>
+        <v>283.0371494162746</v>
       </c>
       <c r="R22">
-        <v>3788.061219970451</v>
+        <v>2547.334344746472</v>
       </c>
       <c r="S22">
-        <v>0.002672825919281521</v>
+        <v>0.003333893182431607</v>
       </c>
       <c r="T22">
-        <v>0.002672825919281522</v>
+        <v>0.003333893182431607</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H23">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>11390.63038017886</v>
+        <v>8192.912901105363</v>
       </c>
       <c r="R23">
-        <v>102515.6734216097</v>
+        <v>73736.21610994826</v>
       </c>
       <c r="S23">
-        <v>0.0723342451830849</v>
+        <v>0.09650428052141961</v>
       </c>
       <c r="T23">
-        <v>0.07233424518308491</v>
+        <v>0.09650428052141961</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H24">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>15546.78566718901</v>
+        <v>5718.171982099698</v>
       </c>
       <c r="R24">
-        <v>139921.0710047011</v>
+        <v>51463.54783889728</v>
       </c>
       <c r="S24">
-        <v>0.0987271967156625</v>
+        <v>0.06735431948212463</v>
       </c>
       <c r="T24">
-        <v>0.09872719671566252</v>
+        <v>0.06735431948212464</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H25">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>1089.594041759826</v>
+        <v>871.8439948651751</v>
       </c>
       <c r="R25">
-        <v>9806.346375838437</v>
+        <v>7846.595953786576</v>
       </c>
       <c r="S25">
-        <v>0.006919280139563807</v>
+        <v>0.01026944610140217</v>
       </c>
       <c r="T25">
-        <v>0.006919280139563808</v>
+        <v>0.01026944610140217</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H26">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>11665.16893817871</v>
+        <v>5804.663517611676</v>
       </c>
       <c r="R26">
-        <v>104986.5204436084</v>
+        <v>52241.97165850508</v>
       </c>
       <c r="S26">
-        <v>0.07407765522307076</v>
+        <v>0.06837310285093724</v>
       </c>
       <c r="T26">
-        <v>0.07407765522307076</v>
+        <v>0.06837310285093723</v>
       </c>
     </row>
   </sheetData>
